--- a/cmir3097/Docs/Lab03/Lab03_WBT_TCs_Form_3testeri.xlsx
+++ b/cmir3097/Docs/Lab03/Lab03_WBT_TCs_Form_3testeri.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{694D6033-5BF0-4815-B23C-12B9CD33CA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEE70B0-0F11-4148-8132-794C1D7306F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="112">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -497,9 +519,6 @@
     <t>Task("task1", date)</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>tasks = [task1, task2], task = task1</t>
   </si>
   <si>
@@ -536,12 +555,6 @@
     <t>[Task("task2", date)]</t>
   </si>
   <si>
-    <t>nullpointer exception</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
     <t>Bulz Ana-Raluca</t>
   </si>
   <si>
@@ -570,6 +583,30 @@
   </si>
   <si>
     <t>68(F) - 70 - 71(F) - 77(F) - 83- 84</t>
+  </si>
+  <si>
+    <t>F02_TC03</t>
+  </si>
+  <si>
+    <t>F02_TCO1</t>
+  </si>
+  <si>
+    <t>tasks = [task1, task2], task = task13</t>
+  </si>
+  <si>
+    <t>Task("task13", date)</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>68 - 70 - 71 - 72 - 71 - 77 - 83 - 84</t>
+  </si>
+  <si>
+    <t>68- 70 - 71 - 72- 73 - 77 - 78 - 84</t>
+  </si>
+  <si>
+    <t>68- 69 - 84</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1425,6 +1462,16 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1434,56 +1481,89 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1494,106 +1574,13 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1623,6 +1610,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1644,33 +1634,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2086,8 +2141,8 @@
   </sheetPr>
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2097,12 +2152,12 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="D1" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="32" t="s">
@@ -2150,7 +2205,7 @@
         <v>56</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P7" s="22">
         <v>232</v>
@@ -2165,7 +2220,7 @@
         <v>57</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P8" s="22">
         <v>232</v>
@@ -2182,7 +2237,7 @@
         <v>58</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P9" s="22">
         <v>232</v>
@@ -2234,8 +2289,8 @@
   </sheetPr>
   <dimension ref="B1:U23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2247,73 +2302,73 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
+      <c r="D1" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
+      <c r="B3" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="45" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="I6" s="39" t="s">
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="I6" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="Q6" s="39" t="s">
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="Q6" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="I8" s="10"/>
-      <c r="Q8" s="44" t="s">
+      <c r="Q8" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
       <c r="T8" s="27">
         <v>5</v>
       </c>
@@ -2322,19 +2377,19 @@
       <c r="B9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="I9" s="31"/>
-      <c r="Q9" s="44" t="s">
+      <c r="Q9" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
       <c r="T9" s="27">
         <v>5</v>
       </c>
@@ -2343,27 +2398,27 @@
       <c r="B10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="51"/>
-      <c r="Q10" s="44" t="s">
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="56"/>
+      <c r="Q10" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="44" t="s">
+      <c r="R10" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="44"/>
+      <c r="S10" s="63"/>
       <c r="T10" s="27">
         <v>5</v>
       </c>
@@ -2372,218 +2427,226 @@
       <c r="B11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="59"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="59"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
-      <c r="Q13" s="39" t="s">
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="59"/>
+      <c r="Q13" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="59"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="59"/>
       <c r="Q15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="58" t="s">
+      <c r="R15" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="59"/>
       <c r="Q16" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="R16" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
+      <c r="R16" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
     </row>
     <row r="17" spans="9:21" x14ac:dyDescent="0.3">
-      <c r="I17" s="52"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="54"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="59"/>
       <c r="Q17" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="R17" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
+      <c r="R17" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
     </row>
     <row r="18" spans="9:21" x14ac:dyDescent="0.3">
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="54"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="59"/>
       <c r="Q18" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="R18" s="119" t="s">
-        <v>104</v>
-      </c>
-      <c r="S18" s="120"/>
-      <c r="T18" s="121"/>
+      <c r="R18" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="S18" s="67"/>
+      <c r="T18" s="68"/>
       <c r="U18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="9:21" x14ac:dyDescent="0.3">
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="59"/>
       <c r="Q19" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="R19" s="116" t="s">
-        <v>105</v>
-      </c>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
+      <c r="R19" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
     </row>
     <row r="20" spans="9:21" x14ac:dyDescent="0.3">
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="54"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="59"/>
       <c r="Q20" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="R20" s="116" t="s">
-        <v>106</v>
-      </c>
-      <c r="S20" s="117"/>
-      <c r="T20" s="118"/>
+      <c r="R20" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="S20" s="48"/>
+      <c r="T20" s="49"/>
     </row>
     <row r="21" spans="9:21" x14ac:dyDescent="0.3">
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="54"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="59"/>
     </row>
     <row r="22" spans="9:21" x14ac:dyDescent="0.3">
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="54"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="59"/>
     </row>
     <row r="23" spans="9:21" x14ac:dyDescent="0.3">
-      <c r="I23" s="55"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="57"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="R19:T19"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
@@ -2600,14 +2663,6 @@
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2621,10 +2676,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:Y12"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E23" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="D5" zoomScale="86" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2651,167 +2706,167 @@
     <col min="25" max="25" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-    </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="D1" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B3" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B3" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="67" t="s">
+    <row r="6" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-    </row>
-    <row r="7" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="62" t="s">
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="63" t="s">
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="64" t="s">
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-    </row>
-    <row r="8" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="67"/>
-      <c r="C8" s="59" t="s">
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="70"/>
+      <c r="C8" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="61" t="s">
+      <c r="E8" s="79"/>
+      <c r="F8" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61" t="s">
+      <c r="G8" s="76"/>
+      <c r="H8" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61" t="s">
+      <c r="I8" s="76"/>
+      <c r="J8" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61" t="s">
+      <c r="K8" s="76"/>
+      <c r="L8" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="M8" s="61"/>
-      <c r="N8" s="63" t="s">
+      <c r="M8" s="76"/>
+      <c r="N8" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="63" t="s">
+      <c r="O8" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="65" t="s">
+      <c r="P8" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="63" t="s">
+      <c r="Q8" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="R8" s="63" t="s">
+      <c r="R8" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="S8" s="64">
+      <c r="S8" s="73">
         <v>0</v>
       </c>
-      <c r="T8" s="64">
+      <c r="T8" s="73">
         <v>1</v>
       </c>
-      <c r="U8" s="64">
+      <c r="U8" s="73">
         <v>2</v>
       </c>
-      <c r="V8" s="64" t="s">
+      <c r="V8" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="64" t="s">
+      <c r="W8" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="X8" s="64" t="s">
+      <c r="X8" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="Y8" s="64" t="s">
+      <c r="Y8" s="73" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="67"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="62"/>
+    <row r="9" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="70"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="11" t="s">
         <v>25</v>
       </c>
@@ -2836,110 +2891,186 @@
       <c r="M9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-    </row>
-    <row r="10" spans="2:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15" t="s">
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" cm="1">
+        <f t="array" aca="1" ref="A10" ca="1">A10:AB10</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="125" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="126" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="127" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15" t="s">
+      <c r="I10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15" t="s">
+      <c r="J10" s="11"/>
+      <c r="K10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16" t="s">
+      <c r="L10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33" t="s">
+      <c r="M10" s="11"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-    </row>
-    <row r="11" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R10" s="39"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+    </row>
+    <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D11" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="H11" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="L11" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="M11" s="15"/>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="16"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
-      <c r="S11" s="33" t="s">
+      <c r="S11" s="33"/>
+      <c r="T11" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
+      <c r="V11" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="W11" s="33"/>
       <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-    </row>
-    <row r="12" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
+      <c r="Y11" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -2956,18 +3087,6 @@
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S7:Y7"/>
     <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2982,8 +3101,8 @@
   </sheetPr>
   <dimension ref="B1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3003,65 +3122,65 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="D1" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="101" t="s">
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="102"/>
+      <c r="L4" s="86"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="98"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="99" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="99" t="s">
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="100"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3073,22 +3192,22 @@
       <c r="B6" s="18">
         <v>13</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="87" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="113" t="s">
+      <c r="E6" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="114"/>
+      <c r="J6" s="101"/>
       <c r="K6" s="34" t="b">
         <v>1</v>
       </c>
@@ -3100,25 +3219,25 @@
       <c r="B7" s="18">
         <v>14</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" s="92"/>
+      <c r="E7" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="99"/>
       <c r="K7" s="35" t="b">
         <v>0</v>
       </c>
-      <c r="L7" s="35" t="s">
-        <v>95</v>
+      <c r="L7" s="35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -3141,133 +3260,145 @@
       <c r="K9" s="19"/>
     </row>
     <row r="10" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89" t="s">
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="87" t="s">
+      <c r="G10" s="124"/>
+      <c r="H10" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="72" t="s">
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="73"/>
+      <c r="N10" s="112"/>
     </row>
     <row r="11" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="81" t="s">
+      <c r="G11" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="83" t="s">
+      <c r="H11" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="75" t="s">
+      <c r="I11" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="75" t="s">
+      <c r="J11" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="85" t="s">
+      <c r="K11" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="94" t="s">
+      <c r="L11" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="70" t="s">
+      <c r="M11" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="N11" s="82" t="s">
+      <c r="N11" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="74"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="79"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="116"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="22">
         <v>2</v>
       </c>
       <c r="C13" s="20">
+        <v>2</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
+      <c r="E13" s="36">
         <v>1</v>
       </c>
-      <c r="D13" s="20">
-        <v>1</v>
-      </c>
-      <c r="E13" s="36">
-        <v>0.9</v>
-      </c>
       <c r="F13" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="I13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" s="23">
         <v>0</v>
       </c>
-      <c r="L13" s="115">
-        <v>0.91</v>
+      <c r="L13" s="42">
+        <v>1</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="N13" s="24">
         <f>C13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M10:N10"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="C4:C5"/>
@@ -3277,23 +3408,11 @@
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3302,21 +3421,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D554F47F16D1AE46AF74397CE0A37779" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="24441d7a3758428b2811889d7d94fa0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="28a9ec7f-d5a2-44c1-9222-13672e632811" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c373de015648521c434ab6f3362511f8" ns2:_="">
     <xsd:import namespace="28a9ec7f-d5a2-44c1-9222-13672e632811"/>
@@ -3454,24 +3558,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5584EA36-EBBD-4829-BA6A-A76BB62529C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E38DC80-6F0A-473F-856D-44FA13F6FA7B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24DA1C50-4D4C-432D-94C8-A2B13520658D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3487,4 +3589,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E38DC80-6F0A-473F-856D-44FA13F6FA7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5584EA36-EBBD-4829-BA6A-A76BB62529C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>